--- a/Daisy-xls/ResearchPages/research-bladder-cancer.xlsx
+++ b/Daisy-xls/ResearchPages/research-bladder-cancer.xlsx
@@ -138,7 +138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -161,12 +161,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -218,6 +233,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -525,7 +543,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -582,7 +600,9 @@
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="18">
+        <v>697682</v>
+      </c>
       <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
@@ -598,7 +618,9 @@
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="18">
+        <v>479072</v>
+      </c>
       <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
@@ -614,7 +636,9 @@
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="18">
+        <v>300494</v>
+      </c>
       <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
@@ -632,7 +656,9 @@
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="18">
+        <v>105037</v>
+      </c>
       <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
